--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1505.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1505.xlsx
@@ -354,7 +354,7 @@
         <v>2.45807723031169</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.267052878978282</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1505.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1505.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.566998662103119</v>
+        <v>1.165100455284119</v>
       </c>
       <c r="B1">
-        <v>2.45807723031169</v>
+        <v>1.821740746498108</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.352670192718506</v>
       </c>
       <c r="D1">
-        <v>1.267052878978282</v>
+        <v>2.280625343322754</v>
       </c>
       <c r="E1">
-        <v>0.6639590853793711</v>
+        <v>0.3693938851356506</v>
       </c>
     </row>
   </sheetData>
